--- a/cuadro de roles.xlsx
+++ b/cuadro de roles.xlsx
@@ -87,13 +87,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="CMU Serif"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,7 +126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -130,24 +135,101 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CMU Serif"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CMU Serif"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CMU Serif"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CMU Serif"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CMU Serif"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CMU Serif"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CMU Serif"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -164,7 +246,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:E11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:E11" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:E11">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -173,11 +255,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Rol" dataDxfId="4"/>
-    <tableColumn id="2" name="Nº" dataDxfId="3"/>
-    <tableColumn id="3" name="Concepto" dataDxfId="2"/>
-    <tableColumn id="4" name="Hora Inicial" dataDxfId="1"/>
-    <tableColumn id="5" name="Hora Final" dataDxfId="0"/>
+    <tableColumn id="1" name="Rol" dataDxfId="6"/>
+    <tableColumn id="2" name="Nº" dataDxfId="5"/>
+    <tableColumn id="3" name="Concepto" dataDxfId="4"/>
+    <tableColumn id="4" name="Hora Inicial" dataDxfId="3"/>
+    <tableColumn id="5" name="Hora Final" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -483,19 +565,19 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -512,7 +594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -529,7 +611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -546,7 +628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -563,7 +645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -580,7 +662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -597,7 +679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -614,7 +696,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -631,7 +713,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -648,7 +730,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -665,7 +747,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -684,8 +766,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>